--- a/co_class_results.xlsx
+++ b/co_class_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4617097061442564</v>
+        <v>0.423042304230423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3138913624220837</v>
+        <v>0.3141314131413142</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5650044523597507</v>
+        <v>0.5639063906390639</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7039180765805877</v>
+        <v>0.7295229522952296</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.391789379741187</v>
+        <v>0.3288227334235453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3136992414100848</v>
+        <v>0.3139377537212449</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4730031236055333</v>
+        <v>0.4826341903473162</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3681392235609103</v>
+        <v>0.381596752368065</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3507829977628635</v>
+        <v>0.3138851198552691</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3136465324384787</v>
+        <v>0.3138851198552691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.472930648769575</v>
+        <v>0.4730890999547716</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3606263982102909</v>
+        <v>0.3717774762550882</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4197031039136302</v>
+        <v>0.3951796271032287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3117408906882591</v>
+        <v>0.3119599818099136</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4849302744039586</v>
+        <v>0.4815825375170532</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5528565002249213</v>
+        <v>0.5679854479308777</v>
       </c>
     </row>
   </sheetData>
